--- a/team_specific_matrix/Akron_A.xlsx
+++ b/team_specific_matrix/Akron_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1732673267326733</v>
+        <v>0.1652542372881356</v>
       </c>
       <c r="C2">
-        <v>0.5841584158415841</v>
+        <v>0.597457627118644</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0297029702970297</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1485148514851485</v>
+        <v>0.1398305084745763</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06435643564356436</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008130081300813009</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="C3">
-        <v>0.04065040650406504</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06504065040650407</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7317073170731707</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1544715447154472</v>
+        <v>0.1360544217687075</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P4">
-        <v>0.5925925925925926</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3703703703703703</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05806451612903226</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01935483870967742</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07096774193548387</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2580645161290323</v>
+        <v>0.2538860103626943</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01290322580645161</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1483870967741935</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="R6">
-        <v>0.05161290322580645</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="S6">
-        <v>0.3806451612903226</v>
+        <v>0.38860103626943</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1192660550458716</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01834862385321101</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04587155963302753</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1376146788990826</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03669724770642202</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2018348623853211</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="R7">
-        <v>0.1009174311926606</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="S7">
-        <v>0.3394495412844037</v>
+        <v>0.3228346456692913</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1215277777777778</v>
+        <v>0.1076487252124646</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388888888888889</v>
+        <v>0.0113314447592068</v>
       </c>
       <c r="E8">
-        <v>0.003472222222222222</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="F8">
-        <v>0.05208333333333334</v>
+        <v>0.05099150141643059</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1388888888888889</v>
+        <v>0.1388101983002833</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01041666666666667</v>
+        <v>0.0113314447592068</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2326388888888889</v>
+        <v>0.2152974504249292</v>
       </c>
       <c r="R8">
-        <v>0.1076388888888889</v>
+        <v>0.1019830028328612</v>
       </c>
       <c r="S8">
-        <v>0.3194444444444444</v>
+        <v>0.3597733711048159</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07339449541284404</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01834862385321101</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08256880733944955</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09174311926605505</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009174311926605505</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1834862385321101</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.1009174311926606</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="S9">
-        <v>0.4403669724770642</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1066666666666667</v>
+        <v>0.1054054054054054</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01777777777777778</v>
+        <v>0.01711711711711712</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08333333333333333</v>
+        <v>0.08468468468468468</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1211111111111111</v>
+        <v>0.1207207207207207</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01444444444444444</v>
+        <v>0.01531531531531532</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2022222222222222</v>
+        <v>0.2063063063063063</v>
       </c>
       <c r="R10">
-        <v>0.09666666666666666</v>
+        <v>0.1045045045045045</v>
       </c>
       <c r="S10">
-        <v>0.3577777777777778</v>
+        <v>0.345945945945946</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1923076923076923</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1153846153846154</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="K11">
-        <v>0.1923076923076923</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="L11">
-        <v>0.4945054945054945</v>
+        <v>0.4626168224299065</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005494505494505495</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6847826086956522</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2391304347826087</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03260869565217391</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.0396039603960396</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3214285714285715</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01324503311258278</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1125827814569536</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="I15">
-        <v>0.05298013245033113</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="J15">
-        <v>0.4701986754966888</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="K15">
-        <v>0.07947019867549669</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01324503311258278</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03973509933774835</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2185430463576159</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0310077519379845</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1782945736434109</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="I16">
-        <v>0.07751937984496124</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J16">
-        <v>0.3720930232558139</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="K16">
-        <v>0.07751937984496124</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02325581395348837</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07751937984496124</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1627906976744186</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01923076923076923</v>
+        <v>0.02406417112299465</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1987179487179487</v>
+        <v>0.2112299465240642</v>
       </c>
       <c r="I17">
-        <v>0.09294871794871795</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J17">
-        <v>0.4615384615384616</v>
+        <v>0.4518716577540107</v>
       </c>
       <c r="K17">
-        <v>0.0576923076923077</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009615384615384616</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05128205128205128</v>
+        <v>0.06149732620320856</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.108974358974359</v>
+        <v>0.09625668449197861</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03355704697986577</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1946308724832215</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="I18">
-        <v>0.04697986577181208</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="J18">
-        <v>0.4630872483221476</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K18">
-        <v>0.1006711409395973</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006711409395973154</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05369127516778523</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1006711409395973</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008871989860583017</v>
+        <v>0.008281573498964804</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2053231939163498</v>
+        <v>0.1966873706004141</v>
       </c>
       <c r="I19">
-        <v>0.07224334600760456</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="J19">
-        <v>0.3840304182509506</v>
+        <v>0.3923395445134575</v>
       </c>
       <c r="K19">
-        <v>0.1013941698352345</v>
+        <v>0.1004140786749482</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02408111533586819</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08871989860583017</v>
+        <v>0.08488612836438923</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1153358681875792</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Akron_A.xlsx
+++ b/team_specific_matrix/Akron_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1652542372881356</v>
+        <v>0.1635687732342007</v>
       </c>
       <c r="C2">
-        <v>0.597457627118644</v>
+        <v>0.5985130111524164</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02966101694915254</v>
+        <v>0.02602230483271376</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1398305084745763</v>
+        <v>0.137546468401487</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06779661016949153</v>
+        <v>0.07434944237918216</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006802721088435374</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="C3">
-        <v>0.04081632653061224</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06122448979591837</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7551020408163265</v>
+        <v>0.7559523809523809</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1360544217687075</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03333333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="P4">
-        <v>0.5666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3666666666666666</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05699481865284974</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0155440414507772</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05699481865284974</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2538860103626943</v>
+        <v>0.2706422018348624</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01036269430051814</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1450777202072539</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="R6">
-        <v>0.07253886010362694</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="S6">
-        <v>0.38860103626943</v>
+        <v>0.3669724770642202</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1181102362204724</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01574803149606299</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04724409448818898</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1496062992125984</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05511811023622047</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1889763779527559</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="R7">
-        <v>0.1023622047244094</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="S7">
-        <v>0.3228346456692913</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1076487252124646</v>
+        <v>0.11</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0113314447592068</v>
+        <v>0.015</v>
       </c>
       <c r="E8">
-        <v>0.0028328611898017</v>
+        <v>0.0025</v>
       </c>
       <c r="F8">
-        <v>0.05099150141643059</v>
+        <v>0.055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1388101983002833</v>
+        <v>0.1375</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0113314447592068</v>
+        <v>0.01</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2152974504249292</v>
+        <v>0.21</v>
       </c>
       <c r="R8">
-        <v>0.1019830028328612</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.3597733711048159</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06617647058823529</v>
+        <v>0.06832298136645963</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01470588235294118</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09558823529411764</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09558823529411764</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007352941176470588</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1764705882352941</v>
+        <v>0.1801242236024845</v>
       </c>
       <c r="R9">
-        <v>0.1029411764705882</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="S9">
-        <v>0.4411764705882353</v>
+        <v>0.4472049689440994</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1054054054054054</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01711711711711712</v>
+        <v>0.02012882447665056</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08468468468468468</v>
+        <v>0.08293075684380032</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1207207207207207</v>
+        <v>0.1207729468599034</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01531531531531532</v>
+        <v>0.01529790660225443</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2063063063063063</v>
+        <v>0.2053140096618357</v>
       </c>
       <c r="R10">
-        <v>0.1045045045045045</v>
+        <v>0.1046698872785829</v>
       </c>
       <c r="S10">
-        <v>0.345945945945946</v>
+        <v>0.3446054750402576</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2009345794392523</v>
+        <v>0.1926229508196721</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1214953271028037</v>
+        <v>0.1270491803278689</v>
       </c>
       <c r="K11">
-        <v>0.205607476635514</v>
+        <v>0.2008196721311475</v>
       </c>
       <c r="L11">
-        <v>0.4626168224299065</v>
+        <v>0.4672131147540984</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.01229508196721311</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6831683168316832</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2475247524752475</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0297029702970297</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0396039603960396</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08571428571428572</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01075268817204301</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1182795698924731</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="I15">
-        <v>0.05913978494623656</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="J15">
-        <v>0.4516129032258064</v>
+        <v>0.4413145539906103</v>
       </c>
       <c r="K15">
-        <v>0.06451612903225806</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01075268817204301</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04301075268817205</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2419354838709677</v>
+        <v>0.244131455399061</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03246753246753246</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1883116883116883</v>
+        <v>0.1787709497206704</v>
       </c>
       <c r="I16">
-        <v>0.06493506493506493</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="J16">
-        <v>0.4025974025974026</v>
+        <v>0.4134078212290503</v>
       </c>
       <c r="K16">
-        <v>0.07792207792207792</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01948051948051948</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07142857142857142</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1340782122905028</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02406417112299465</v>
+        <v>0.02147971360381861</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2112299465240642</v>
+        <v>0.2124105011933174</v>
       </c>
       <c r="I17">
-        <v>0.09090909090909091</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="J17">
-        <v>0.4518716577540107</v>
+        <v>0.441527446300716</v>
       </c>
       <c r="K17">
-        <v>0.053475935828877</v>
+        <v>0.05489260143198091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0106951871657754</v>
+        <v>0.01193317422434368</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06149732620320856</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09625668449197861</v>
+        <v>0.1002386634844869</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03589743589743589</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1948717948717949</v>
+        <v>0.1953488372093023</v>
       </c>
       <c r="I18">
-        <v>0.05641025641025641</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="J18">
-        <v>0.4615384615384616</v>
+        <v>0.4465116279069767</v>
       </c>
       <c r="K18">
-        <v>0.08205128205128205</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05128205128205128</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1025641025641026</v>
+        <v>0.1069767441860465</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008281573498964804</v>
+        <v>0.01195952161913524</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1966873706004141</v>
+        <v>0.2005519779208832</v>
       </c>
       <c r="I19">
-        <v>0.07453416149068323</v>
+        <v>0.07727690892364306</v>
       </c>
       <c r="J19">
-        <v>0.3923395445134575</v>
+        <v>0.3854645814167433</v>
       </c>
       <c r="K19">
-        <v>0.1004140786749482</v>
+        <v>0.1021159153633855</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02380952380952381</v>
+        <v>0.02391904323827047</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08488612836438923</v>
+        <v>0.08555657773689053</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.119047619047619</v>
+        <v>0.1131554737810488</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Akron_A.xlsx
+++ b/team_specific_matrix/Akron_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1635687732342007</v>
+        <v>0.1584507042253521</v>
       </c>
       <c r="C2">
-        <v>0.5985130111524164</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02602230483271376</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.137546468401487</v>
+        <v>0.1338028169014084</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07434944237918216</v>
+        <v>0.07746478873239436</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005952380952380952</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C3">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05952380952380952</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7559523809523809</v>
+        <v>0.7444444444444445</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.575</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.35</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05504587155963303</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01376146788990826</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05963302752293578</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2706422018348624</v>
+        <v>0.2660944206008584</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009174311926605505</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1467889908256881</v>
+        <v>0.1459227467811159</v>
       </c>
       <c r="R6">
-        <v>0.07798165137614679</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="S6">
-        <v>0.3669724770642202</v>
+        <v>0.369098712446352</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.1210191082802548</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02083333333333333</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04166666666666666</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1527777777777778</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05555555555555555</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1805555555555556</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="R7">
-        <v>0.09027777777777778</v>
+        <v>0.1019108280254777</v>
       </c>
       <c r="S7">
-        <v>0.3333333333333333</v>
+        <v>0.3248407643312102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.11</v>
+        <v>0.108352144469526</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.015</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="E8">
-        <v>0.0025</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="F8">
-        <v>0.055</v>
+        <v>0.0564334085778781</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1375</v>
+        <v>0.1331828442437923</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01</v>
+        <v>0.01128668171557562</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.21</v>
+        <v>0.2054176072234763</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.09706546275395034</v>
       </c>
       <c r="S8">
-        <v>0.36</v>
+        <v>0.3724604966139955</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06832298136645963</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09937888198757763</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006211180124223602</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1801242236024845</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="R9">
-        <v>0.09316770186335403</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="S9">
-        <v>0.4472049689440994</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.106280193236715</v>
+        <v>0.105542900531511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02012882447665056</v>
+        <v>0.01974183750949127</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08293075684380032</v>
+        <v>0.08428246013667426</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1207729468599034</v>
+        <v>0.1192103264996204</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01529790660225443</v>
+        <v>0.01518602885345482</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2053140096618357</v>
+        <v>0.2088078967350038</v>
       </c>
       <c r="R10">
-        <v>0.1046698872785829</v>
+        <v>0.1032649962034928</v>
       </c>
       <c r="S10">
-        <v>0.3446054750402576</v>
+        <v>0.3439635535307517</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1926229508196721</v>
+        <v>0.1845018450184502</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1270491803278689</v>
+        <v>0.1254612546125461</v>
       </c>
       <c r="K11">
-        <v>0.2008196721311475</v>
+        <v>0.1955719557195572</v>
       </c>
       <c r="L11">
-        <v>0.4672131147540984</v>
+        <v>0.4833948339483395</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01229508196721311</v>
+        <v>0.01107011070110701</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6949152542372882</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2457627118644068</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L12">
-        <v>0.02542372881355932</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03389830508474576</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009389671361502348</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1126760563380282</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="I15">
-        <v>0.07511737089201878</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J15">
-        <v>0.4413145539906103</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K15">
-        <v>0.05633802816901409</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05164319248826291</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.244131455399061</v>
+        <v>0.2337662337662338</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0335195530726257</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1787709497206704</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I16">
-        <v>0.06145251396648044</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="J16">
-        <v>0.4134078212290503</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="K16">
-        <v>0.09497206703910614</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01675977653631285</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0670391061452514</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1340782122905028</v>
+        <v>0.1421052631578947</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02147971360381861</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2124105011933174</v>
+        <v>0.2092511013215859</v>
       </c>
       <c r="I17">
-        <v>0.09307875894988067</v>
+        <v>0.09030837004405286</v>
       </c>
       <c r="J17">
-        <v>0.441527446300716</v>
+        <v>0.4295154185022027</v>
       </c>
       <c r="K17">
-        <v>0.05489260143198091</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01193317422434368</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="O17">
-        <v>0.06443914081145585</v>
+        <v>0.06387665198237885</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1002386634844869</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03255813953488372</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1953488372093023</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I18">
-        <v>0.06511627906976744</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="J18">
-        <v>0.4465116279069767</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="K18">
-        <v>0.07906976744186046</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01395348837209302</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06046511627906977</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1069767441860465</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01195952161913524</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2005519779208832</v>
+        <v>0.2071005917159763</v>
       </c>
       <c r="I19">
-        <v>0.07727690892364306</v>
+        <v>0.07523245984784446</v>
       </c>
       <c r="J19">
-        <v>0.3854645814167433</v>
+        <v>0.3761622992392223</v>
       </c>
       <c r="K19">
-        <v>0.1021159153633855</v>
+        <v>0.1039729501267963</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02391904323827047</v>
+        <v>0.02282333051563821</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08555657773689053</v>
+        <v>0.08368554522400676</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1131554737810488</v>
+        <v>0.1191885038038884</v>
       </c>
     </row>
   </sheetData>
